--- a/configuration/Review.xlsx
+++ b/configuration/Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6283BB-FA3B-45F1-907F-36E7E172CBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC3EE7A-63C5-4749-9EC4-0E11A9A30F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
